--- a/biology/Zoologie/Dinomischus/Dinomischus.xlsx
+++ b/biology/Zoologie/Dinomischus/Dinomischus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dinomischus est un genre éteint d'animaux qui vivaient fixés en fond de mer Cambrien moyen, il y a environ 505 Ma (millions d'années), et qui ont été fossilisés dans les schistes de Burgess en Colombie-Britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dinomischus ressemblait à une marguerite d'environ 2,5 cm à peine ouverte à l'extrémité d'une tige laquelle présente un crampon bulbeux à sa base, permettant l'ancrage à un substrat. La marguerite appelée « calice », porte sur son bord externe une série d'environ 20 pétales allongés aux côtés parallèles appelés « bractées ». La face supérieure du calice contient 2 ouvertures, l'une centrale, l'autre déjetée vers le bord, représentant probablement une bouche et un anus. Un tube digestif en forme de « U » avec un large estomac dans sa partie inférieure court à travers le calice d'une ouverture à l'autre.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>† Dinomischus isolatus Morris, 1977
 † Dinomischus venustus Chen, Hou &amp; Lu, 1989</t>
